--- a/wash_P/ESA.xlsx
+++ b/wash_P/ESA.xlsx
@@ -53510,7 +53510,7 @@
         <v>0</v>
       </c>
       <c r="LE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF17" t="n">
         <v>0</v>
@@ -92306,7 +92306,7 @@
         <v>0</v>
       </c>
       <c r="ABI29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABJ29" t="n">
         <v>0</v>
@@ -92342,7 +92342,7 @@
         <v>0</v>
       </c>
       <c r="ABU29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABV29" t="n">
         <v>0</v>
@@ -92378,7 +92378,7 @@
         <v>0</v>
       </c>
       <c r="ACG29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACH29" t="n">
         <v>0</v>
